--- a/Data_clean/MCAS/Estados_US/Edos_USA_2010/WEST_VIRGINIA_2010.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2010/WEST_VIRGINIA_2010.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>El Tule</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Juarez</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -561,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Huanimaro</t>
@@ -574,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Jerecuaro</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Leon</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Penjamo</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Purisima Del Rincon</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -670,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -683,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Cutzamala De Pinzon</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Petatlan</t>
@@ -709,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Zirandaro</t>
@@ -722,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -753,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -766,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Metztitlan</t>
@@ -779,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Zacualtipan De Angeles</t>
@@ -792,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -823,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Jesus Maria</t>
@@ -836,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Total</t>
@@ -867,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Amatepec</t>
@@ -880,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Coacalco De Berriozabal</t>
@@ -893,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -906,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Nezahualcoyotl</t>
@@ -919,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -932,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -945,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -958,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Texcaltitlan</t>
@@ -971,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -984,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1015,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1028,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Purepero</t>
@@ -1041,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>San Lucas</t>
@@ -1054,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Santa Ana Maya</t>
@@ -1067,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -1080,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -1093,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1124,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Zacatepec De Hidalgo</t>
@@ -1137,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1168,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1199,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -1212,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -1225,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Santa Maria Zacatepec</t>
@@ -1238,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Santiago Choapam</t>
@@ -1251,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1282,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Chiautzingo</t>
@@ -1295,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -1308,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Ixtacamaxtitlan</t>
@@ -1321,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Izucar De Matamoros</t>
@@ -1334,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Tilapa</t>
@@ -1347,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1378,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Queretaro</t>
@@ -1391,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>San Juan Del Rio</t>
@@ -1404,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Toliman</t>
@@ -1417,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1448,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Matlapa</t>
@@ -1461,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -1474,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1505,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1536,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1567,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Carrillo Puerto</t>
@@ -1580,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Cordoba</t>
@@ -1593,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -1606,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Huayacocotla</t>
@@ -1619,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Jose Azueta</t>
@@ -1632,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Manlio Fabio Altamirano</t>
@@ -1645,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -1658,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -1671,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -1684,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -1697,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -1710,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -1723,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -1736,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1767,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Total</t>
